--- a/Examples/ngep/ngep0_model.xlsx
+++ b/Examples/ngep/ngep0_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\ngep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0182DB-E2B4-4876-8851-4A0B331DA778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B803C056-5A9F-4A73-B6B5-3177E9CAE9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="375" windowWidth="17295" windowHeight="12525" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$6</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -771,7 +771,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -868,17 +868,17 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -914,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -931,7 +931,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -948,7 +948,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +977,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
